--- a/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 20242.xlsx
+++ b/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
   <si>
     <t>Mat</t>
   </si>
@@ -85,85 +85,130 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
     <t>VASQUEZ</t>
   </si>
   <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
   </si>
   <si>
     <t>VERA</t>
   </si>
   <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
     <t>COLMENARES</t>
   </si>
   <si>
-    <t>RAMOS</t>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>MARIN</t>
   </si>
   <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>MARIN</t>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>UTRERA</t>
+  </si>
+  <si>
+    <t>MOLINA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
   </si>
   <si>
     <t>ESPINDOLA</t>
   </si>
   <si>
-    <t>MOLINA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
   </si>
   <si>
     <t>VILLA</t>
   </si>
   <si>
+    <t>VOTE</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>UTRERA</t>
+    <t>ACEVEDO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
   </si>
   <si>
     <t>PAZ</t>
   </si>
   <si>
-    <t>ACEVEDO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
+    <t>OMAR DAVID</t>
+  </si>
+  <si>
+    <t>CARLOS DAVID</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>URIEL</t>
   </si>
   <si>
     <t>JOSUE YAHIR</t>
   </si>
   <si>
-    <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>URIEL</t>
+    <t>JUAN ALBERTO</t>
+  </si>
+  <si>
+    <t>LEONEL</t>
+  </si>
+  <si>
+    <t>JOSE FRANCISCO</t>
   </si>
   <si>
     <t>ALEX URIEL</t>
   </si>
   <si>
+    <t>CAMILO</t>
+  </si>
+  <si>
     <t>JULIO EDUARDO</t>
   </si>
   <si>
-    <t>CARLOS DAVID</t>
+    <t>KAREN AMERICA</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
   </si>
   <si>
     <t>DANIA LIZETH</t>
-  </si>
-  <si>
-    <t>KAREN AMERICA</t>
-  </si>
-  <si>
-    <t>ABRIL</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1132,16 +1177,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920023</v>
+        <v>23330051920005</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1150,67 +1195,67 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920081</v>
+        <v>23330051920018</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23330051920045</v>
+        <v>23330051920081</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>23330051920212</v>
+        <v>23330051920045</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1219,44 +1264,44 @@
         <v>14</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>22330051920424</v>
+        <v>23330051920023</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>23330051920018</v>
+        <v>23330051920025</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1265,76 +1310,191 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>23330051920133</v>
+        <v>23330051920037</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>23330051920142</v>
+        <v>22330051920021</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>23330051920097</v>
+        <v>23330051920212</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>22330061460232</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>22330051920424</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>23330051920142</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>23330051920097</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>23330051920133</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 20242.xlsx
+++ b/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="58">
   <si>
     <t>Mat</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
     <t>RAMOS</t>
   </si>
   <si>
@@ -97,39 +94,36 @@
     <t>SANTIAGO</t>
   </si>
   <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
     <t>MEJIA</t>
   </si>
   <si>
     <t>VERA</t>
   </si>
   <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
     <t>COLMENARES</t>
   </si>
   <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>MARIN</t>
+    <t>JUSTO</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
   </si>
   <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
     <t>UTRERA</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
     <t>GARCIA</t>
   </si>
   <si>
-    <t>ESPINDOLA</t>
-  </si>
-  <si>
     <t>ZEPAHUA</t>
   </si>
   <si>
@@ -154,24 +145,15 @@
     <t>VILLA</t>
   </si>
   <si>
-    <t>VOTE</t>
-  </si>
-  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>ACEVEDO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
+    <t>NEGRETE</t>
   </si>
   <si>
     <t>PAZ</t>
   </si>
   <si>
-    <t>OMAR DAVID</t>
-  </si>
-  <si>
     <t>CARLOS DAVID</t>
   </si>
   <si>
@@ -181,31 +163,31 @@
     <t>URIEL</t>
   </si>
   <si>
-    <t>JOSUE YAHIR</t>
-  </si>
-  <si>
     <t>JUAN ALBERTO</t>
   </si>
   <si>
     <t>LEONEL</t>
   </si>
   <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
     <t>JOSE FRANCISCO</t>
   </si>
   <si>
     <t>ALEX URIEL</t>
   </si>
   <si>
-    <t>CAMILO</t>
-  </si>
-  <si>
     <t>JULIO EDUARDO</t>
   </si>
   <si>
-    <t>KAREN AMERICA</t>
-  </si>
-  <si>
-    <t>ABRIL</t>
+    <t>JAQUELINE</t>
+  </si>
+  <si>
+    <t>LUIS DAVID</t>
+  </si>
+  <si>
+    <t>ARELI DANAE</t>
   </si>
   <si>
     <t>DANIA LIZETH</t>
@@ -810,16 +792,19 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="H2">
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -833,16 +818,19 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>94.12</v>
+      </c>
+      <c r="H3">
+        <v>7.9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -856,16 +844,19 @@
         <v>31</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>31</v>
       </c>
-      <c r="E4">
-        <v>31</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>8.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -879,16 +870,19 @@
         <v>40</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>40</v>
       </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>8.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -902,16 +896,19 @@
         <v>24</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>79.17</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -925,16 +922,19 @@
         <v>38</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>92.11</v>
+      </c>
+      <c r="H7">
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +1002,7 @@
         <v>75</v>
       </c>
       <c r="H2">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1028,7 +1028,7 @@
         <v>94.12</v>
       </c>
       <c r="H3">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1045,16 +1045,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4">
-        <v>96.77</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>8.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1080,7 +1080,7 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1097,16 +1097,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>83.33</v>
+        <v>79.17</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1123,16 +1123,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7">
-        <v>86.84</v>
+        <v>92.11</v>
       </c>
       <c r="H7">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920005</v>
+        <v>23330051920018</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1200,22 +1200,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920018</v>
+        <v>23330051920081</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1223,22 +1223,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23330051920081</v>
+        <v>23330051920045</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1246,45 +1246,45 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>23330051920045</v>
+        <v>23330051920025</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>23330051920023</v>
+        <v>23330051920037</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1292,22 +1292,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>23330051920025</v>
+        <v>23330051920032</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>23330051920037</v>
+        <v>22330051920021</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1338,16 +1338,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>22330051920021</v>
+        <v>23330051920212</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1361,22 +1361,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>23330051920212</v>
+        <v>22330051920424</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1384,116 +1384,93 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>22330061460232</v>
+        <v>23330051920014</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>22330051920424</v>
+        <v>23330051920321</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>23330051920142</v>
+        <v>23330051920103</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>23330051920097</v>
+        <v>23330051920133</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>23330051920133</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15">
         <v>1</v>
       </c>
     </row>
